--- a/附件/附件3-弹性模量与压力.xlsx
+++ b/附件/附件3-弹性模量与压力.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044F1602-2EE3-4F35-B33A-B6D01480523D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15600" windowHeight="9435"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,8 +30,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,14 +84,3316 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32764566929133859"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>弹性模量(MPa)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$402</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="401"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>56.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>71.5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>73.5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>75.5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>76.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>77.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>78.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>83.5</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>85.5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>86.5</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>87.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>93.5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>95.5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>100.5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>101.5</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>103.5</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>104.5</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>105.5</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>108.5</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>109.5</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>110.5</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>111.5</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>114.5</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>115.5</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>116.5</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>118.5</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>119.5</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>120.5</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>121.5</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>122.5</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>123.5</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>124.5</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>125.5</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>126.5</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>128.5</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>129.5</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>130.5</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>131.5</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>132.5</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>133.5</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>134.5</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>135.5</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>136.5</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>138.5</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>139.5</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>140.5</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>141.5</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>142.5</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>143.5</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>144.5</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>145.5</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>146.5</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>147.5</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>148.5</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>149.5</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>150.5</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>151.5</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>152.5</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>153.5</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>154.5</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>155.5</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>156.5</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>157.5</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>158.5</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>159.5</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>160.5</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>161.5</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>162.5</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>163.5</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>164.5</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>165.5</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>166.5</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>167.5</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>168.5</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>169.5</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>170.5</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>171.5</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>172.5</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>173.5</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>174.5</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>175.5</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>176.5</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>177.5</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>178.5</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>179.5</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>180.5</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>181.5</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>182.5</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>183.5</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>184.5</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>185.5</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>186.5</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>188.5</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>189.5</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>190.5</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>192.5</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>193.5</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>194.5</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>195.5</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>196.5</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>197.5</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>198.5</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>199.5</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$402</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="401"/>
+                <c:pt idx="0">
+                  <c:v>1538.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1540.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1543.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1545.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1548.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1550.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1553.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1555.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1558</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1560.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1563</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1565.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1570.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1573</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1575.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1578</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1580.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1583.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1585.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1588.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1590.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1593.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1595.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1598.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1603.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1606.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1608.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1611.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1614</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1616.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1619.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1621.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1624.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1627.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1629.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1632.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1635</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1637.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1640.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1643</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1645.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1648.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1651.1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1653.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1656.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1659.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1661.9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1664.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1667.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1670.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1672.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1675.6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1678.3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1681.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1683.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1686.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1689.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1692.2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1695</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1697.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1700.7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1703.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1706.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1709.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1712</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1714.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1717.7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1720.6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1723.4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1726.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1729.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1732.1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1735</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1737.9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1740.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1743.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1746.7</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1749.6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1752.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1755.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1758.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1761.4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1764.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1767.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1770.4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1773.4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1776.4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1779.4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1782.4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1785.4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1788.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1791.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1794.6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1797.6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1800.7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1803.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1806.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1809.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1813</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1816.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1819.3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1822.4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1825.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1828.7</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1831.8</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1838.1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1841.3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1844.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1847.7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1850.9</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1854.1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1857.3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1860.6</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1863.8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1867</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1870.3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1873.6</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1876.8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1880.1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1883.4</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1886.7</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1890</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1893.3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1896.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1903.3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1906.7</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1913.4</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1916.8</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1920.2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1923.6</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1927</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1930.4</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1933.8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1937.3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1940.7</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1944.2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1947.7</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1951.1</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1954.6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1958.1</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1961.6</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1965.2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1968.7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1972.2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1975.8</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1979.3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1982.9</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1986.5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1990.1</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1993.7</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1997.3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2000.9</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2004.5</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2008.2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2011.8</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2015.5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2019.2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2022.9</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2026.5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2030.3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2037.7</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2041.4</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2045.2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2052.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2056.5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2060.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2064.1</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2067.9</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2071.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2075.6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2079.5</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2083.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2087.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2091.1</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2095</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2098.9</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2102.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2106.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2110.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2114.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2118.6</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2122.6</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2126.6</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2130.6</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2134.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>2138.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2142.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2146.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2150.9</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2159.1</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2163.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2167.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2171.4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2175.6</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2179.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2183.9</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2188.1</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2192.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2196.5</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2200.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2205</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2209.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2213.5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2217.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2222.1</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2226.4</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2230.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2235.1</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2239.4</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2243.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2248.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2252.6</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2257</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2261.4</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2265.9</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2270.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2274.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2279.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2283.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2288.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2292.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2297.4</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2301.9</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2306.5</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2311.1</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2315.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2320.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2324.9</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2329.6</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2334.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2339</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2343.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2348.4</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2353.1</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2357.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2362.6</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2367.4</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2372.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2377</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2381.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2386.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2391.5</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2396.4</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2401.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2406.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2411.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2416.1</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2421.1</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2426.1</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2431.1</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2436.1</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2441.1</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2446.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2451.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2456.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2461.5</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2466.6</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2471.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2476.9</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2482.1</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2487.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2492.5</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2497.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2503</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2508.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2513.6</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2518.9</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2524.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2529.6</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2534.9</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2540.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2545.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2551.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2556.6</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2562.1</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2567.6</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2573.1</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2578.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2584.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2589.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2595.4</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2601</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2606.6999999999998</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2612.3000000000002</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2618</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2623.7</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2629.4</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2635.2</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2641</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2646.7</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2652.6</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>2658.4</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>2664.3</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>2670.1</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>2676</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>2682</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>2687.9</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>2693.9</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>2699.9</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>2705.9</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>2712</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>2718</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>2724.1</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>2730.2</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>2736.4</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>2742.6</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>2748.7</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>2755</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>2761.2</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>2767.5</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>2773.8</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>2780.1</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>2786.4</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>2792.8</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>2799.2</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>2805.6</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>2812</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>2818.5</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>2825</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>2831.5</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>2838.1</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>2844.7</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>2851.3</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>2857.9</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>2864.6</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>2871.2</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>2878</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>2884.7</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>2891.5</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>2898.3</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>2905.1</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>2912</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>2918.8</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>2925.8</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>2932.7</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>2939.7</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>2946.7</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>2953.7</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>2960.8</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>2967.9</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>2975</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>2982.2</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>2989.3</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>2996.6</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>3003.8</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>3011.1</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>3018.4</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>3025.8</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>3033.1</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>3040.5</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>3048</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>3055.5</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>3063</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>3070.5</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>3078.1</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>3085.7</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>3093.3</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>3101</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>3108.7</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>3116.5</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>3124.3</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>3132.1</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>3139.9</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>3147.8</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>3155.7</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>3163.7</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>3171.7</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>3179.7</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>3187.8</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>3195.9</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>3204.1</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>3212.2</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>3220.5</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>3228.7</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>3237</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>3245.4</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>3253.7</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>3262.2</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>3270.6</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>3279.1</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>3287.6</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>3296.2</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>3304.8</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>3313.5</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>3322.2</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>3331</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>3339.7</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>3348.6</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>3357.4</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>3366.4</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>3375.3</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>3384.3</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>3393.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F540-483E-98D7-B6D9AED9AA93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1344817312"/>
+        <c:axId val="1344818272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1344817312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1344818272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1344818272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1344817312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94A7B1F-6E4F-768F-2956-EA08F447FE56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -128,7 +3431,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -162,6 +3465,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -196,9 +3500,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -371,20 +3676,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="126" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -400,7 +3705,7 @@
         <v>1538.4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -408,7 +3713,7 @@
         <v>1540.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -416,7 +3721,7 @@
         <v>1543.3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -424,7 +3729,7 @@
         <v>1545.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -432,7 +3737,7 @@
         <v>1548.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -440,7 +3745,7 @@
         <v>1550.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -448,7 +3753,7 @@
         <v>1553.1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.5</v>
       </c>
@@ -456,7 +3761,7 @@
         <v>1555.6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -464,7 +3769,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.5</v>
       </c>
@@ -472,7 +3777,7 @@
         <v>1560.5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -480,7 +3785,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5.5</v>
       </c>
@@ -488,7 +3793,7 @@
         <v>1565.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -496,7 +3801,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6.5</v>
       </c>
@@ -504,7 +3809,7 @@
         <v>1570.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -512,7 +3817,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7.5</v>
       </c>
@@ -520,7 +3825,7 @@
         <v>1575.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -528,7 +3833,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8.5</v>
       </c>
@@ -536,7 +3841,7 @@
         <v>1580.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -544,7 +3849,7 @@
         <v>1583.1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9.5</v>
       </c>
@@ -552,7 +3857,7 @@
         <v>1585.6</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
@@ -560,7 +3865,7 @@
         <v>1588.2</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10.5</v>
       </c>
@@ -568,7 +3873,7 @@
         <v>1590.7</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
@@ -576,7 +3881,7 @@
         <v>1593.3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11.5</v>
       </c>
@@ -584,7 +3889,7 @@
         <v>1595.9</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -592,7 +3897,7 @@
         <v>1598.4</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12.5</v>
       </c>
@@ -600,7 +3905,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
@@ -608,7 +3913,7 @@
         <v>1603.6</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13.5</v>
       </c>
@@ -616,7 +3921,7 @@
         <v>1606.2</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
@@ -624,7 +3929,7 @@
         <v>1608.8</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14.5</v>
       </c>
@@ -632,7 +3937,7 @@
         <v>1611.3</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15</v>
       </c>
@@ -640,7 +3945,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>15.5</v>
       </c>
@@ -648,7 +3953,7 @@
         <v>1616.6</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>16</v>
       </c>
@@ -656,7 +3961,7 @@
         <v>1619.2</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>16.5</v>
       </c>
@@ -664,7 +3969,7 @@
         <v>1621.8</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>17</v>
       </c>
@@ -672,7 +3977,7 @@
         <v>1624.4</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>17.5</v>
       </c>
@@ -680,7 +3985,7 @@
         <v>1627.1</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>18</v>
       </c>
@@ -688,7 +3993,7 @@
         <v>1629.7</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>18.5</v>
       </c>
@@ -696,7 +4001,7 @@
         <v>1632.4</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>19</v>
       </c>
@@ -704,7 +4009,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>19.5</v>
       </c>
@@ -712,7 +4017,7 @@
         <v>1637.7</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20</v>
       </c>
@@ -720,7 +4025,7 @@
         <v>1640.3</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20.5</v>
       </c>
@@ -728,7 +4033,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>21</v>
       </c>
@@ -736,7 +4041,7 @@
         <v>1645.7</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>21.5</v>
       </c>
@@ -744,7 +4049,7 @@
         <v>1648.4</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>22</v>
       </c>
@@ -752,7 +4057,7 @@
         <v>1651.1</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>22.5</v>
       </c>
@@ -760,7 +4065,7 @@
         <v>1653.8</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>23</v>
       </c>
@@ -768,7 +4073,7 @@
         <v>1656.5</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>23.5</v>
       </c>
@@ -776,7 +4081,7 @@
         <v>1659.2</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>24</v>
       </c>
@@ -784,7 +4089,7 @@
         <v>1661.9</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>24.5</v>
       </c>
@@ -792,7 +4097,7 @@
         <v>1664.6</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>25</v>
       </c>
@@ -800,7 +4105,7 @@
         <v>1667.4</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>25.5</v>
       </c>
@@ -808,7 +4113,7 @@
         <v>1670.1</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>26</v>
       </c>
@@ -816,7 +4121,7 @@
         <v>1672.8</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>26.5</v>
       </c>
@@ -824,7 +4129,7 @@
         <v>1675.6</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>27</v>
       </c>
@@ -832,7 +4137,7 @@
         <v>1678.3</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>27.5</v>
       </c>
@@ -840,7 +4145,7 @@
         <v>1681.1</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>28</v>
       </c>
@@ -848,7 +4153,7 @@
         <v>1683.9</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>28.5</v>
       </c>
@@ -856,7 +4161,7 @@
         <v>1686.7</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>29</v>
       </c>
@@ -864,7 +4169,7 @@
         <v>1689.5</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>29.5</v>
       </c>
@@ -872,7 +4177,7 @@
         <v>1692.2</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>30</v>
       </c>
@@ -880,7 +4185,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>30.5</v>
       </c>
@@ -888,7 +4193,7 @@
         <v>1697.8</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>31</v>
       </c>
@@ -896,7 +4201,7 @@
         <v>1700.7</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>31.5</v>
       </c>
@@ -904,7 +4209,7 @@
         <v>1703.5</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>32</v>
       </c>
@@ -912,7 +4217,7 @@
         <v>1706.3</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>32.5</v>
       </c>
@@ -920,7 +4225,7 @@
         <v>1709.1</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>33</v>
       </c>
@@ -928,7 +4233,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>33.5</v>
       </c>
@@ -936,7 +4241,7 @@
         <v>1714.8</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>34</v>
       </c>
@@ -944,7 +4249,7 @@
         <v>1717.7</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>34.5</v>
       </c>
@@ -952,7 +4257,7 @@
         <v>1720.6</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>35</v>
       </c>
@@ -960,7 +4265,7 @@
         <v>1723.4</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>35.5</v>
       </c>
@@ -968,7 +4273,7 @@
         <v>1726.3</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>36</v>
       </c>
@@ -976,7 +4281,7 @@
         <v>1729.2</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>36.5</v>
       </c>
@@ -984,7 +4289,7 @@
         <v>1732.1</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>37</v>
       </c>
@@ -992,7 +4297,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>37.5</v>
       </c>
@@ -1000,7 +4305,7 @@
         <v>1737.9</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>38</v>
       </c>
@@ -1008,7 +4313,7 @@
         <v>1740.8</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>38.5</v>
       </c>
@@ -1016,7 +4321,7 @@
         <v>1743.7</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>39</v>
       </c>
@@ -1024,7 +4329,7 @@
         <v>1746.7</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>39.5</v>
       </c>
@@ -1032,7 +4337,7 @@
         <v>1749.6</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>40</v>
       </c>
@@ -1040,7 +4345,7 @@
         <v>1752.5</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>40.5</v>
       </c>
@@ -1048,7 +4353,7 @@
         <v>1755.5</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>41</v>
       </c>
@@ -1056,7 +4361,7 @@
         <v>1758.4</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>41.5</v>
       </c>
@@ -1064,7 +4369,7 @@
         <v>1761.4</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>42</v>
       </c>
@@ -1072,7 +4377,7 @@
         <v>1764.4</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>42.5</v>
       </c>
@@ -1080,7 +4385,7 @@
         <v>1767.4</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>43</v>
       </c>
@@ -1088,7 +4393,7 @@
         <v>1770.4</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>43.5</v>
       </c>
@@ -1096,7 +4401,7 @@
         <v>1773.4</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>44</v>
       </c>
@@ -1104,7 +4409,7 @@
         <v>1776.4</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>44.5</v>
       </c>
@@ -1112,7 +4417,7 @@
         <v>1779.4</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>45</v>
       </c>
@@ -1120,7 +4425,7 @@
         <v>1782.4</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>45.5</v>
       </c>
@@ -1128,7 +4433,7 @@
         <v>1785.4</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>46</v>
       </c>
@@ -1136,7 +4441,7 @@
         <v>1788.5</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>46.5</v>
       </c>
@@ -1144,7 +4449,7 @@
         <v>1791.5</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>47</v>
       </c>
@@ -1152,7 +4457,7 @@
         <v>1794.6</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>47.5</v>
       </c>
@@ -1160,7 +4465,7 @@
         <v>1797.6</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>48</v>
       </c>
@@ -1168,7 +4473,7 @@
         <v>1800.7</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>48.5</v>
       </c>
@@ -1176,7 +4481,7 @@
         <v>1803.8</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>49</v>
       </c>
@@ -1184,7 +4489,7 @@
         <v>1806.8</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>49.5</v>
       </c>
@@ -1192,7 +4497,7 @@
         <v>1809.9</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>50</v>
       </c>
@@ -1200,7 +4505,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>50.5</v>
       </c>
@@ -1208,7 +4513,7 @@
         <v>1816.1</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>51</v>
       </c>
@@ -1216,7 +4521,7 @@
         <v>1819.3</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>51.5</v>
       </c>
@@ -1224,7 +4529,7 @@
         <v>1822.4</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>52</v>
       </c>
@@ -1232,7 +4537,7 @@
         <v>1825.5</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>52.5</v>
       </c>
@@ -1240,7 +4545,7 @@
         <v>1828.7</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>53</v>
       </c>
@@ -1248,7 +4553,7 @@
         <v>1831.8</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>53.5</v>
       </c>
@@ -1256,7 +4561,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>54</v>
       </c>
@@ -1264,7 +4569,7 @@
         <v>1838.1</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>54.5</v>
       </c>
@@ -1272,7 +4577,7 @@
         <v>1841.3</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>55</v>
       </c>
@@ -1280,7 +4585,7 @@
         <v>1844.5</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>55.5</v>
       </c>
@@ -1288,7 +4593,7 @@
         <v>1847.7</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>56</v>
       </c>
@@ -1296,7 +4601,7 @@
         <v>1850.9</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>56.5</v>
       </c>
@@ -1304,7 +4609,7 @@
         <v>1854.1</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>57</v>
       </c>
@@ -1312,7 +4617,7 @@
         <v>1857.3</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>57.5</v>
       </c>
@@ -1320,7 +4625,7 @@
         <v>1860.6</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>58</v>
       </c>
@@ -1328,7 +4633,7 @@
         <v>1863.8</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>58.5</v>
       </c>
@@ -1336,7 +4641,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>59</v>
       </c>
@@ -1344,7 +4649,7 @@
         <v>1870.3</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>59.5</v>
       </c>
@@ -1352,7 +4657,7 @@
         <v>1873.6</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>60</v>
       </c>
@@ -1360,7 +4665,7 @@
         <v>1876.8</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>60.5</v>
       </c>
@@ -1368,7 +4673,7 @@
         <v>1880.1</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>61</v>
       </c>
@@ -1376,7 +4681,7 @@
         <v>1883.4</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>61.5</v>
       </c>
@@ -1384,7 +4689,7 @@
         <v>1886.7</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>62</v>
       </c>
@@ -1392,7 +4697,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>62.5</v>
       </c>
@@ -1400,7 +4705,7 @@
         <v>1893.3</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>63</v>
       </c>
@@ -1408,7 +4713,7 @@
         <v>1896.6</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>63.5</v>
       </c>
@@ -1416,7 +4721,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>64</v>
       </c>
@@ -1424,7 +4729,7 @@
         <v>1903.3</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>64.5</v>
       </c>
@@ -1432,7 +4737,7 @@
         <v>1906.7</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>65</v>
       </c>
@@ -1440,7 +4745,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>65.5</v>
       </c>
@@ -1448,7 +4753,7 @@
         <v>1913.4</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>66</v>
       </c>
@@ -1456,7 +4761,7 @@
         <v>1916.8</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>66.5</v>
       </c>
@@ -1464,7 +4769,7 @@
         <v>1920.2</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>67</v>
       </c>
@@ -1472,7 +4777,7 @@
         <v>1923.6</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>67.5</v>
       </c>
@@ -1480,7 +4785,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>68</v>
       </c>
@@ -1488,7 +4793,7 @@
         <v>1930.4</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>68.5</v>
       </c>
@@ -1496,7 +4801,7 @@
         <v>1933.8</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>69</v>
       </c>
@@ -1504,7 +4809,7 @@
         <v>1937.3</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>69.5</v>
       </c>
@@ -1512,7 +4817,7 @@
         <v>1940.7</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>70</v>
       </c>
@@ -1520,7 +4825,7 @@
         <v>1944.2</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>70.5</v>
       </c>
@@ -1528,7 +4833,7 @@
         <v>1947.7</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>71</v>
       </c>
@@ -1536,7 +4841,7 @@
         <v>1951.1</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>71.5</v>
       </c>
@@ -1544,7 +4849,7 @@
         <v>1954.6</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>72</v>
       </c>
@@ -1552,7 +4857,7 @@
         <v>1958.1</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>72.5</v>
       </c>
@@ -1560,7 +4865,7 @@
         <v>1961.6</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>73</v>
       </c>
@@ -1568,7 +4873,7 @@
         <v>1965.2</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>73.5</v>
       </c>
@@ -1576,7 +4881,7 @@
         <v>1968.7</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>74</v>
       </c>
@@ -1584,7 +4889,7 @@
         <v>1972.2</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>74.5</v>
       </c>
@@ -1592,7 +4897,7 @@
         <v>1975.8</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>75</v>
       </c>
@@ -1600,7 +4905,7 @@
         <v>1979.3</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>75.5</v>
       </c>
@@ -1608,7 +4913,7 @@
         <v>1982.9</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>76</v>
       </c>
@@ -1616,7 +4921,7 @@
         <v>1986.5</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>76.5</v>
       </c>
@@ -1624,7 +4929,7 @@
         <v>1990.1</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>77</v>
       </c>
@@ -1632,7 +4937,7 @@
         <v>1993.7</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>77.5</v>
       </c>
@@ -1640,7 +4945,7 @@
         <v>1997.3</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>78</v>
       </c>
@@ -1648,7 +4953,7 @@
         <v>2000.9</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>78.5</v>
       </c>
@@ -1656,7 +4961,7 @@
         <v>2004.5</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>79</v>
       </c>
@@ -1664,7 +4969,7 @@
         <v>2008.2</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>79.5</v>
       </c>
@@ -1672,7 +4977,7 @@
         <v>2011.8</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>80</v>
       </c>
@@ -1680,7 +4985,7 @@
         <v>2015.5</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>80.5</v>
       </c>
@@ -1688,7 +4993,7 @@
         <v>2019.2</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>81</v>
       </c>
@@ -1696,7 +5001,7 @@
         <v>2022.9</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>81.5</v>
       </c>
@@ -1704,7 +5009,7 @@
         <v>2026.5</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>82</v>
       </c>
@@ -1712,7 +5017,7 @@
         <v>2030.3</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>82.5</v>
       </c>
@@ -1720,7 +5025,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>83</v>
       </c>
@@ -1728,7 +5033,7 @@
         <v>2037.7</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>83.5</v>
       </c>
@@ -1736,7 +5041,7 @@
         <v>2041.4</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>84</v>
       </c>
@@ -1744,7 +5049,7 @@
         <v>2045.2</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>84.5</v>
       </c>
@@ -1752,7 +5057,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>85</v>
       </c>
@@ -1760,7 +5065,7 @@
         <v>2052.6999999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>85.5</v>
       </c>
@@ -1768,7 +5073,7 @@
         <v>2056.5</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>86</v>
       </c>
@@ -1776,7 +5081,7 @@
         <v>2060.3000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>86.5</v>
       </c>
@@ -1784,7 +5089,7 @@
         <v>2064.1</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>87</v>
       </c>
@@ -1792,7 +5097,7 @@
         <v>2067.9</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>87.5</v>
       </c>
@@ -1800,7 +5105,7 @@
         <v>2071.8000000000002</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>88</v>
       </c>
@@ -1808,7 +5113,7 @@
         <v>2075.6</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>88.5</v>
       </c>
@@ -1816,7 +5121,7 @@
         <v>2079.5</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>89</v>
       </c>
@@ -1824,7 +5129,7 @@
         <v>2083.3000000000002</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>89.5</v>
       </c>
@@ -1832,7 +5137,7 @@
         <v>2087.1999999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>90</v>
       </c>
@@ -1840,7 +5145,7 @@
         <v>2091.1</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>90.5</v>
       </c>
@@ -1848,7 +5153,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>91</v>
       </c>
@@ -1856,7 +5161,7 @@
         <v>2098.9</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>91.5</v>
       </c>
@@ -1864,7 +5169,7 @@
         <v>2102.8000000000002</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>92</v>
       </c>
@@ -1872,7 +5177,7 @@
         <v>2106.8000000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>92.5</v>
       </c>
@@ -1880,7 +5185,7 @@
         <v>2110.6999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>93</v>
       </c>
@@ -1888,7 +5193,7 @@
         <v>2114.6999999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>93.5</v>
       </c>
@@ -1896,7 +5201,7 @@
         <v>2118.6</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>94</v>
       </c>
@@ -1904,7 +5209,7 @@
         <v>2122.6</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>94.5</v>
       </c>
@@ -1912,7 +5217,7 @@
         <v>2126.6</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>95</v>
       </c>
@@ -1920,7 +5225,7 @@
         <v>2130.6</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>95.5</v>
       </c>
@@ -1928,7 +5233,7 @@
         <v>2134.6999999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>96</v>
       </c>
@@ -1936,7 +5241,7 @@
         <v>2138.6999999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>96.5</v>
       </c>
@@ -1944,7 +5249,7 @@
         <v>2142.6999999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>97</v>
       </c>
@@ -1952,7 +5257,7 @@
         <v>2146.8000000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>97.5</v>
       </c>
@@ -1960,7 +5265,7 @@
         <v>2150.9</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>98</v>
       </c>
@@ -1968,7 +5273,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>98.5</v>
       </c>
@@ -1976,7 +5281,7 @@
         <v>2159.1</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>99</v>
       </c>
@@ -1984,7 +5289,7 @@
         <v>2163.1999999999998</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>99.5</v>
       </c>
@@ -1992,7 +5297,7 @@
         <v>2167.3000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>100</v>
       </c>
@@ -2000,7 +5305,7 @@
         <v>2171.4</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>100.5</v>
       </c>
@@ -2008,7 +5313,7 @@
         <v>2175.6</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>101</v>
       </c>
@@ -2016,7 +5321,7 @@
         <v>2179.6999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>101.5</v>
       </c>
@@ -2024,7 +5329,7 @@
         <v>2183.9</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>102</v>
       </c>
@@ -2032,7 +5337,7 @@
         <v>2188.1</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>102.5</v>
       </c>
@@ -2040,7 +5345,7 @@
         <v>2192.3000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>103</v>
       </c>
@@ -2048,7 +5353,7 @@
         <v>2196.5</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>103.5</v>
       </c>
@@ -2056,7 +5361,7 @@
         <v>2200.8000000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>104</v>
       </c>
@@ -2064,7 +5369,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>104.5</v>
       </c>
@@ -2072,7 +5377,7 @@
         <v>2209.3000000000002</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>105</v>
       </c>
@@ -2080,7 +5385,7 @@
         <v>2213.5</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>105.5</v>
       </c>
@@ -2088,7 +5393,7 @@
         <v>2217.8000000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>106</v>
       </c>
@@ -2096,7 +5401,7 @@
         <v>2222.1</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>106.5</v>
       </c>
@@ -2104,7 +5409,7 @@
         <v>2226.4</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>107</v>
       </c>
@@ -2112,7 +5417,7 @@
         <v>2230.6999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>107.5</v>
       </c>
@@ -2120,7 +5425,7 @@
         <v>2235.1</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>108</v>
       </c>
@@ -2128,7 +5433,7 @@
         <v>2239.4</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>108.5</v>
       </c>
@@ -2136,7 +5441,7 @@
         <v>2243.8000000000002</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>109</v>
       </c>
@@ -2144,7 +5449,7 @@
         <v>2248.1999999999998</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>109.5</v>
       </c>
@@ -2152,7 +5457,7 @@
         <v>2252.6</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>110</v>
       </c>
@@ -2160,7 +5465,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>110.5</v>
       </c>
@@ -2168,7 +5473,7 @@
         <v>2261.4</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>111</v>
       </c>
@@ -2176,7 +5481,7 @@
         <v>2265.9</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>111.5</v>
       </c>
@@ -2184,7 +5489,7 @@
         <v>2270.3000000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>112</v>
       </c>
@@ -2192,7 +5497,7 @@
         <v>2274.8000000000002</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>112.5</v>
       </c>
@@ -2200,7 +5505,7 @@
         <v>2279.3000000000002</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>113</v>
       </c>
@@ -2208,7 +5513,7 @@
         <v>2283.8000000000002</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>113.5</v>
       </c>
@@ -2216,7 +5521,7 @@
         <v>2288.3000000000002</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>114</v>
       </c>
@@ -2224,7 +5529,7 @@
         <v>2292.8000000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>114.5</v>
       </c>
@@ -2232,7 +5537,7 @@
         <v>2297.4</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>115</v>
       </c>
@@ -2240,7 +5545,7 @@
         <v>2301.9</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>115.5</v>
       </c>
@@ -2248,7 +5553,7 @@
         <v>2306.5</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>116</v>
       </c>
@@ -2256,7 +5561,7 @@
         <v>2311.1</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>116.5</v>
       </c>
@@ -2264,7 +5569,7 @@
         <v>2315.6999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>117</v>
       </c>
@@ -2272,7 +5577,7 @@
         <v>2320.3000000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>117.5</v>
       </c>
@@ -2280,7 +5585,7 @@
         <v>2324.9</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>118</v>
       </c>
@@ -2288,7 +5593,7 @@
         <v>2329.6</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>118.5</v>
       </c>
@@ -2296,7 +5601,7 @@
         <v>2334.3000000000002</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>119</v>
       </c>
@@ -2304,7 +5609,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>119.5</v>
       </c>
@@ -2312,7 +5617,7 @@
         <v>2343.6999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>120</v>
       </c>
@@ -2320,7 +5625,7 @@
         <v>2348.4</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>120.5</v>
       </c>
@@ -2328,7 +5633,7 @@
         <v>2353.1</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>121</v>
       </c>
@@ -2336,7 +5641,7 @@
         <v>2357.8000000000002</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>121.5</v>
       </c>
@@ -2344,7 +5649,7 @@
         <v>2362.6</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>122</v>
       </c>
@@ -2352,7 +5657,7 @@
         <v>2367.4</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>122.5</v>
       </c>
@@ -2360,7 +5665,7 @@
         <v>2372.1999999999998</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>123</v>
       </c>
@@ -2368,7 +5673,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>123.5</v>
       </c>
@@ -2376,7 +5681,7 @@
         <v>2381.8000000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>124</v>
       </c>
@@ -2384,7 +5689,7 @@
         <v>2386.6999999999998</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>124.5</v>
       </c>
@@ -2392,7 +5697,7 @@
         <v>2391.5</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>125</v>
       </c>
@@ -2400,7 +5705,7 @@
         <v>2396.4</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>125.5</v>
       </c>
@@ -2408,7 +5713,7 @@
         <v>2401.3000000000002</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>126</v>
       </c>
@@ -2416,7 +5721,7 @@
         <v>2406.1999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>126.5</v>
       </c>
@@ -2424,7 +5729,7 @@
         <v>2411.1999999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>127</v>
       </c>
@@ -2432,7 +5737,7 @@
         <v>2416.1</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>127.5</v>
       </c>
@@ -2440,7 +5745,7 @@
         <v>2421.1</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>128</v>
       </c>
@@ -2448,7 +5753,7 @@
         <v>2426.1</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>128.5</v>
       </c>
@@ -2456,7 +5761,7 @@
         <v>2431.1</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>129</v>
       </c>
@@ -2464,7 +5769,7 @@
         <v>2436.1</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>129.5</v>
       </c>
@@ -2472,7 +5777,7 @@
         <v>2441.1</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>130</v>
       </c>
@@ -2480,7 +5785,7 @@
         <v>2446.1999999999998</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>130.5</v>
       </c>
@@ -2488,7 +5793,7 @@
         <v>2451.3000000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>131</v>
       </c>
@@ -2496,7 +5801,7 @@
         <v>2456.3000000000002</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>131.5</v>
       </c>
@@ -2504,7 +5809,7 @@
         <v>2461.5</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>132</v>
       </c>
@@ -2512,7 +5817,7 @@
         <v>2466.6</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>132.5</v>
       </c>
@@ -2520,7 +5825,7 @@
         <v>2471.6999999999998</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>133</v>
       </c>
@@ -2528,7 +5833,7 @@
         <v>2476.9</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>133.5</v>
       </c>
@@ -2536,7 +5841,7 @@
         <v>2482.1</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>134</v>
       </c>
@@ -2544,7 +5849,7 @@
         <v>2487.3000000000002</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>134.5</v>
       </c>
@@ -2552,7 +5857,7 @@
         <v>2492.5</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>135</v>
       </c>
@@ -2560,7 +5865,7 @@
         <v>2497.6999999999998</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>135.5</v>
       </c>
@@ -2568,7 +5873,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>136</v>
       </c>
@@ -2576,7 +5881,7 @@
         <v>2508.3000000000002</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>136.5</v>
       </c>
@@ -2584,7 +5889,7 @@
         <v>2513.6</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>137</v>
       </c>
@@ -2592,7 +5897,7 @@
         <v>2518.9</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>137.5</v>
       </c>
@@ -2600,7 +5905,7 @@
         <v>2524.1999999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>138</v>
       </c>
@@ -2608,7 +5913,7 @@
         <v>2529.6</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>138.5</v>
       </c>
@@ -2616,7 +5921,7 @@
         <v>2534.9</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>139</v>
       </c>
@@ -2624,7 +5929,7 @@
         <v>2540.3000000000002</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>139.5</v>
       </c>
@@ -2632,7 +5937,7 @@
         <v>2545.8000000000002</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>140</v>
       </c>
@@ -2640,7 +5945,7 @@
         <v>2551.1999999999998</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>140.5</v>
       </c>
@@ -2648,7 +5953,7 @@
         <v>2556.6</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>141</v>
       </c>
@@ -2656,7 +5961,7 @@
         <v>2562.1</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>141.5</v>
       </c>
@@ -2664,7 +5969,7 @@
         <v>2567.6</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>142</v>
       </c>
@@ -2672,7 +5977,7 @@
         <v>2573.1</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>142.5</v>
       </c>
@@ -2680,7 +5985,7 @@
         <v>2578.6999999999998</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>143</v>
       </c>
@@ -2688,7 +5993,7 @@
         <v>2584.1999999999998</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>143.5</v>
       </c>
@@ -2696,7 +6001,7 @@
         <v>2589.8000000000002</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>144</v>
       </c>
@@ -2704,7 +6009,7 @@
         <v>2595.4</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>144.5</v>
       </c>
@@ -2712,7 +6017,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>145</v>
       </c>
@@ -2720,7 +6025,7 @@
         <v>2606.6999999999998</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>145.5</v>
       </c>
@@ -2728,7 +6033,7 @@
         <v>2612.3000000000002</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>146</v>
       </c>
@@ -2736,7 +6041,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>146.5</v>
       </c>
@@ -2744,7 +6049,7 @@
         <v>2623.7</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>147</v>
       </c>
@@ -2752,7 +6057,7 @@
         <v>2629.4</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>147.5</v>
       </c>
@@ -2760,7 +6065,7 @@
         <v>2635.2</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>148</v>
       </c>
@@ -2768,7 +6073,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>148.5</v>
       </c>
@@ -2776,7 +6081,7 @@
         <v>2646.7</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>149</v>
       </c>
@@ -2784,7 +6089,7 @@
         <v>2652.6</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>149.5</v>
       </c>
@@ -2792,7 +6097,7 @@
         <v>2658.4</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>150</v>
       </c>
@@ -2800,7 +6105,7 @@
         <v>2664.3</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>150.5</v>
       </c>
@@ -2808,7 +6113,7 @@
         <v>2670.1</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>151</v>
       </c>
@@ -2816,7 +6121,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>151.5</v>
       </c>
@@ -2824,7 +6129,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>152</v>
       </c>
@@ -2832,7 +6137,7 @@
         <v>2687.9</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>152.5</v>
       </c>
@@ -2840,7 +6145,7 @@
         <v>2693.9</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>153</v>
       </c>
@@ -2848,7 +6153,7 @@
         <v>2699.9</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>153.5</v>
       </c>
@@ -2856,7 +6161,7 @@
         <v>2705.9</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>154</v>
       </c>
@@ -2864,7 +6169,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>154.5</v>
       </c>
@@ -2872,7 +6177,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>155</v>
       </c>
@@ -2880,7 +6185,7 @@
         <v>2724.1</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>155.5</v>
       </c>
@@ -2888,7 +6193,7 @@
         <v>2730.2</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>156</v>
       </c>
@@ -2896,7 +6201,7 @@
         <v>2736.4</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>156.5</v>
       </c>
@@ -2904,7 +6209,7 @@
         <v>2742.6</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>157</v>
       </c>
@@ -2912,7 +6217,7 @@
         <v>2748.7</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>157.5</v>
       </c>
@@ -2920,7 +6225,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>158</v>
       </c>
@@ -2928,7 +6233,7 @@
         <v>2761.2</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>158.5</v>
       </c>
@@ -2936,7 +6241,7 @@
         <v>2767.5</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>159</v>
       </c>
@@ -2944,7 +6249,7 @@
         <v>2773.8</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>159.5</v>
       </c>
@@ -2952,7 +6257,7 @@
         <v>2780.1</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>160</v>
       </c>
@@ -2960,7 +6265,7 @@
         <v>2786.4</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>160.5</v>
       </c>
@@ -2968,7 +6273,7 @@
         <v>2792.8</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>161</v>
       </c>
@@ -2976,7 +6281,7 @@
         <v>2799.2</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>161.5</v>
       </c>
@@ -2984,7 +6289,7 @@
         <v>2805.6</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>162</v>
       </c>
@@ -2992,7 +6297,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>162.5</v>
       </c>
@@ -3000,7 +6305,7 @@
         <v>2818.5</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>163</v>
       </c>
@@ -3008,7 +6313,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>163.5</v>
       </c>
@@ -3016,7 +6321,7 @@
         <v>2831.5</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>164</v>
       </c>
@@ -3024,7 +6329,7 @@
         <v>2838.1</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>164.5</v>
       </c>
@@ -3032,7 +6337,7 @@
         <v>2844.7</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>165</v>
       </c>
@@ -3040,7 +6345,7 @@
         <v>2851.3</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>165.5</v>
       </c>
@@ -3048,7 +6353,7 @@
         <v>2857.9</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>166</v>
       </c>
@@ -3056,7 +6361,7 @@
         <v>2864.6</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>166.5</v>
       </c>
@@ -3064,7 +6369,7 @@
         <v>2871.2</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>167</v>
       </c>
@@ -3072,7 +6377,7 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>167.5</v>
       </c>
@@ -3080,7 +6385,7 @@
         <v>2884.7</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>168</v>
       </c>
@@ -3088,7 +6393,7 @@
         <v>2891.5</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>168.5</v>
       </c>
@@ -3096,7 +6401,7 @@
         <v>2898.3</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>169</v>
       </c>
@@ -3104,7 +6409,7 @@
         <v>2905.1</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>169.5</v>
       </c>
@@ -3112,7 +6417,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>170</v>
       </c>
@@ -3120,7 +6425,7 @@
         <v>2918.8</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>170.5</v>
       </c>
@@ -3128,7 +6433,7 @@
         <v>2925.8</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>171</v>
       </c>
@@ -3136,7 +6441,7 @@
         <v>2932.7</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>171.5</v>
       </c>
@@ -3144,7 +6449,7 @@
         <v>2939.7</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>172</v>
       </c>
@@ -3152,7 +6457,7 @@
         <v>2946.7</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>172.5</v>
       </c>
@@ -3160,7 +6465,7 @@
         <v>2953.7</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>173</v>
       </c>
@@ -3168,7 +6473,7 @@
         <v>2960.8</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>173.5</v>
       </c>
@@ -3176,7 +6481,7 @@
         <v>2967.9</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>174</v>
       </c>
@@ -3184,7 +6489,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>174.5</v>
       </c>
@@ -3192,7 +6497,7 @@
         <v>2982.2</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>175</v>
       </c>
@@ -3200,7 +6505,7 @@
         <v>2989.3</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>175.5</v>
       </c>
@@ -3208,7 +6513,7 @@
         <v>2996.6</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>176</v>
       </c>
@@ -3216,7 +6521,7 @@
         <v>3003.8</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>176.5</v>
       </c>
@@ -3224,7 +6529,7 @@
         <v>3011.1</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>177</v>
       </c>
@@ -3232,7 +6537,7 @@
         <v>3018.4</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>177.5</v>
       </c>
@@ -3240,7 +6545,7 @@
         <v>3025.8</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>178</v>
       </c>
@@ -3248,7 +6553,7 @@
         <v>3033.1</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>178.5</v>
       </c>
@@ -3256,7 +6561,7 @@
         <v>3040.5</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>179</v>
       </c>
@@ -3264,7 +6569,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>179.5</v>
       </c>
@@ -3272,7 +6577,7 @@
         <v>3055.5</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>180</v>
       </c>
@@ -3280,7 +6585,7 @@
         <v>3063</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>180.5</v>
       </c>
@@ -3288,7 +6593,7 @@
         <v>3070.5</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>181</v>
       </c>
@@ -3296,7 +6601,7 @@
         <v>3078.1</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>181.5</v>
       </c>
@@ -3304,7 +6609,7 @@
         <v>3085.7</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>182</v>
       </c>
@@ -3312,7 +6617,7 @@
         <v>3093.3</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>182.5</v>
       </c>
@@ -3320,7 +6625,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>183</v>
       </c>
@@ -3328,7 +6633,7 @@
         <v>3108.7</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>183.5</v>
       </c>
@@ -3336,7 +6641,7 @@
         <v>3116.5</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>184</v>
       </c>
@@ -3344,7 +6649,7 @@
         <v>3124.3</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>184.5</v>
       </c>
@@ -3352,7 +6657,7 @@
         <v>3132.1</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>185</v>
       </c>
@@ -3360,7 +6665,7 @@
         <v>3139.9</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>185.5</v>
       </c>
@@ -3368,7 +6673,7 @@
         <v>3147.8</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>186</v>
       </c>
@@ -3376,7 +6681,7 @@
         <v>3155.7</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>186.5</v>
       </c>
@@ -3384,7 +6689,7 @@
         <v>3163.7</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>187</v>
       </c>
@@ -3392,7 +6697,7 @@
         <v>3171.7</v>
       </c>
     </row>
-    <row r="377" spans="1:2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>187.5</v>
       </c>
@@ -3400,7 +6705,7 @@
         <v>3179.7</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>188</v>
       </c>
@@ -3408,7 +6713,7 @@
         <v>3187.8</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>188.5</v>
       </c>
@@ -3416,7 +6721,7 @@
         <v>3195.9</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>189</v>
       </c>
@@ -3424,7 +6729,7 @@
         <v>3204.1</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>189.5</v>
       </c>
@@ -3432,7 +6737,7 @@
         <v>3212.2</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>190</v>
       </c>
@@ -3440,7 +6745,7 @@
         <v>3220.5</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>190.5</v>
       </c>
@@ -3448,7 +6753,7 @@
         <v>3228.7</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>191</v>
       </c>
@@ -3456,7 +6761,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>191.5</v>
       </c>
@@ -3464,7 +6769,7 @@
         <v>3245.4</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>192</v>
       </c>
@@ -3472,7 +6777,7 @@
         <v>3253.7</v>
       </c>
     </row>
-    <row r="387" spans="1:2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>192.5</v>
       </c>
@@ -3480,7 +6785,7 @@
         <v>3262.2</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>193</v>
       </c>
@@ -3488,7 +6793,7 @@
         <v>3270.6</v>
       </c>
     </row>
-    <row r="389" spans="1:2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>193.5</v>
       </c>
@@ -3496,7 +6801,7 @@
         <v>3279.1</v>
       </c>
     </row>
-    <row r="390" spans="1:2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>194</v>
       </c>
@@ -3504,7 +6809,7 @@
         <v>3287.6</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>194.5</v>
       </c>
@@ -3512,7 +6817,7 @@
         <v>3296.2</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>195</v>
       </c>
@@ -3520,7 +6825,7 @@
         <v>3304.8</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>195.5</v>
       </c>
@@ -3528,7 +6833,7 @@
         <v>3313.5</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>196</v>
       </c>
@@ -3536,7 +6841,7 @@
         <v>3322.2</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>196.5</v>
       </c>
@@ -3544,7 +6849,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>197</v>
       </c>
@@ -3552,7 +6857,7 @@
         <v>3339.7</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>197.5</v>
       </c>
@@ -3560,7 +6865,7 @@
         <v>3348.6</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>198</v>
       </c>
@@ -3568,7 +6873,7 @@
         <v>3357.4</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>198.5</v>
       </c>
@@ -3576,7 +6881,7 @@
         <v>3366.4</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>199</v>
       </c>
@@ -3584,7 +6889,7 @@
         <v>3375.3</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>199.5</v>
       </c>
@@ -3592,7 +6897,7 @@
         <v>3384.3</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>200</v>
       </c>
@@ -3604,16 +6909,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3622,12 +6928,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
